--- a/EM_gates/data/employment.xlsx
+++ b/EM_gates/data/employment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lara\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D63F807E-864F-4B65-96F1-AB373AB50FCE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF15FC1-7557-425F-8902-053F7DE1C283}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1098" yWindow="1098" windowWidth="17280" windowHeight="8994" xr2:uid="{515391F4-0977-4066-A249-2B21D8DB5CAE}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{515391F4-0977-4066-A249-2B21D8DB5CAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="27">
   <si>
     <t>Employment</t>
   </si>
@@ -47,27 +47,18 @@
     <t xml:space="preserve">Is the state minimum wage a living wage for a family of three (2 adults and 1 child) in a majority of the counties/cities? </t>
   </si>
   <si>
-    <t>Right to Organize</t>
-  </si>
-  <si>
     <t>Does the state allow union activity (no Right-to-Work law)?</t>
   </si>
   <si>
     <t>Is there collective bargaining for teachers, police, and fire fighters?</t>
   </si>
   <si>
-    <t>Worker Protections</t>
-  </si>
-  <si>
     <t>Does the state have paid sick leave?</t>
   </si>
   <si>
     <t xml:space="preserve">Does the state have paid family leave? </t>
   </si>
   <si>
-    <t>Policy Dimension</t>
-  </si>
-  <si>
     <t>Policy Question</t>
   </si>
   <si>
@@ -108,6 +99,21 @@
   </si>
   <si>
     <t>Does the State Have an Employment Rights Law for Victims of Domestic Violence?</t>
+  </si>
+  <si>
+    <t>Does the state have an OSHA-approved plan that covers private workplaces?</t>
+  </si>
+  <si>
+    <t>Does the state have an OSHA-approved plan that covers state/local government workplaces?</t>
+  </si>
+  <si>
+    <t>Protections</t>
+  </si>
+  <si>
+    <t>Sub-domain</t>
+  </si>
+  <si>
+    <t>Organizing</t>
   </si>
 </sst>
 </file>
@@ -598,11 +604,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A9CBF8F-F572-4C9E-9C8F-0D13873A148A}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -614,22 +620,22 @@
   <sheetData>
     <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="47.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -678,10 +684,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -698,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
@@ -714,12 +720,14 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B6" s="8" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
@@ -736,10 +744,10 @@
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
@@ -756,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="B8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>7</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>9</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
@@ -773,11 +781,11 @@
     </row>
     <row r="9" spans="1:9" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A9" s="1"/>
-      <c r="B9" s="12" t="s">
-        <v>7</v>
+      <c r="B9" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D9" s="13">
         <v>0</v>
@@ -793,11 +801,11 @@
       <c r="A10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>7</v>
+      <c r="B10" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D10" s="15">
         <v>0</v>
@@ -813,11 +821,11 @@
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>7</v>
+      <c r="B11" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D11" s="15">
         <v>1</v>
@@ -833,11 +841,11 @@
       <c r="A12" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>7</v>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D12" s="15">
         <v>0</v>
@@ -853,11 +861,11 @@
       <c r="A13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>7</v>
+      <c r="B13" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C13" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="15">
         <v>0</v>
@@ -873,11 +881,11 @@
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>7</v>
+      <c r="B14" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C14" s="14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D14" s="15">
         <v>0</v>
@@ -893,39 +901,79 @@
       <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>7</v>
+      <c r="B15" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C15" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A16" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="15">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="17">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17">
+      <c r="D18" s="15">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1</v>
+      </c>
+      <c r="F18" s="15">
         <v>1</v>
       </c>
     </row>
